--- a/biology/Microbiologie/Sphingobacteriaceae/Sphingobacteriaceae.xlsx
+++ b/biology/Microbiologie/Sphingobacteriaceae/Sphingobacteriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille Sphingobacteriaceae fait partie de l'ordre des Sphingobacteriales du phylum Bacteroidota. Elle contient 14 genres de bactéries environnementales dont le genre type Sphingobacterium.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Sphingobacteriaceae est décrite en 1998 par Steyn et placée en 2011 par Kämpfer dans l'ordre Sphingobacteriales[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Sphingobacteriaceae est décrite en 1998 par Steyn et placée en 2011 par Kämpfer dans l'ordre Sphingobacteriales,.
 </t>
         </is>
       </c>
@@ -544,12 +558,87 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nomenclature
-Le nom correct complet validé par l'ICSP (avec auteur) de ce taxon est Sphingobacteriaceae Steyn et al. 1998[3].
-Étymologie
-L'étymologie de la classe Sphingobacteriales est la suivante :  N.L. neut. n. Sphingobacterium, genre type de l'ordre; L. fem. pl. n. suff. -aceae, suffixe définissant une famille; N.L. fem. pl. n. Sphingobacteriaceae, la famille de Sphingobacterium[4].
-Liste des genres
-Selon la LPSN  (18 février 2023)[3], la famille Sphingobacteriaceae comprend 14 genres publiés de manière valide :
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet validé par l'ICSP (avec auteur) de ce taxon est Sphingobacteriaceae Steyn et al. 1998.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sphingobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sphingobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de la classe Sphingobacteriales est la suivante :  N.L. neut. n. Sphingobacterium, genre type de l'ordre; L. fem. pl. n. suff. -aceae, suffixe définissant une famille; N.L. fem. pl. n. Sphingobacteriaceae, la famille de Sphingobacterium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sphingobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sphingobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (18 février 2023), la famille Sphingobacteriaceae comprend 14 genres publiés de manière valide :
 Albibacterium García-López et al. 2020
 Anseongella Siddiqi et al. 2016
 Arcticibacter Prasad et al. 2013
@@ -563,11 +652,80 @@
 Pelobium Xia et al. 2016
 Pseudopedobacter Cao et al. 2014
 Solitalea Weon et al. 2009
-Sphingobacterium (genre type) Yabuuchi et al. 1983
-Genres non valides
-Selon la LPSN  (18 février 2023)[3], la famille Sphingobacteriaceae comprend le genre "Hevizibacter" qui est publié de manière non valide.
-Genres synonymes
-Le genre Pseudosphingobacterium placé dans cette famille est désormais un synonyme deu genre Olivibacter[4].
+Sphingobacterium (genre type) Yabuuchi et al. 1983</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sphingobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sphingobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Genres non valides</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (18 février 2023), la famille Sphingobacteriaceae comprend le genre "Hevizibacter" qui est publié de manière non valide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sphingobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sphingobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Genres synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Pseudosphingobacterium placé dans cette famille est désormais un synonyme deu genre Olivibacter.
 </t>
         </is>
       </c>
